--- a/timetabling_GA/results/HK3_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK3_CT01/TKB_HocKy_GiangVien.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -616,18 +616,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -642,29 +649,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -684,24 +691,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -709,16 +716,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -736,40 +743,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -785,26 +785,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -929,18 +929,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -955,29 +962,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -997,24 +1004,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -1022,16 +1029,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1049,40 +1056,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1098,26 +1098,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1242,18 +1242,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -1268,29 +1275,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1310,24 +1317,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -1335,16 +1342,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1362,40 +1369,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1411,26 +1411,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1555,18 +1555,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -1581,29 +1588,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1623,24 +1630,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -1648,16 +1655,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1675,40 +1682,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1724,26 +1724,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1868,18 +1868,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -1894,29 +1901,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1936,24 +1943,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -1961,16 +1968,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1988,40 +1995,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2037,26 +2037,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2181,18 +2181,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -2207,29 +2214,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2249,24 +2256,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -2274,16 +2281,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2301,40 +2308,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2350,26 +2350,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2494,18 +2494,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -2520,29 +2527,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2562,24 +2569,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -2587,16 +2594,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2614,40 +2621,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2663,26 +2663,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2807,18 +2807,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -2833,29 +2840,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2875,24 +2882,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -2900,16 +2907,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2927,40 +2934,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2976,26 +2976,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3120,18 +3120,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -3146,29 +3153,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3188,24 +3195,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -3213,16 +3220,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3240,40 +3247,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -3289,26 +3289,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3433,18 +3433,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -3459,29 +3466,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3501,24 +3508,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -3526,16 +3533,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3553,40 +3560,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -3602,26 +3602,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3746,18 +3746,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -3772,29 +3779,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3814,24 +3821,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -3839,16 +3846,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3866,40 +3873,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -3915,26 +3915,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4059,18 +4059,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -4085,29 +4092,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4127,24 +4134,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -4152,16 +4159,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4179,40 +4186,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -4228,26 +4228,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4372,18 +4372,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -4398,29 +4405,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4440,24 +4447,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -4465,16 +4472,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4492,40 +4499,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -4541,26 +4541,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4685,18 +4685,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -4711,29 +4718,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4753,24 +4760,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -4778,16 +4785,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4805,40 +4812,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -4854,26 +4854,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -4998,18 +4998,25 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -5024,29 +5031,29 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -5066,24 +5073,24 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 Phòng: R104
 (Lý thuyết)</t>
@@ -5091,16 +5098,16 @@
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -5118,40 +5125,33 @@
           <t>Trần Văn G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Toán cao cấp
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -5167,26 +5167,26 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-Phòng: LAB03
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-Phòng: R104
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
